--- a/WebPage/Common/RptTemplet/0515Report.xlsx
+++ b/WebPage/Common/RptTemplet/0515Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CSIP_CardFlow\WebPage\Common\RptTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02187F28-F558-4F16-9B38-AF28181AAE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D19AAE-28D2-4C38-9462-3A0C26BDF33B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,11 +212,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -233,6 +230,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -242,12 +242,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -531,52 +532,52 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="16.42578125" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -593,8 +594,8 @@
       <c r="L3" s="9"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -620,44 +621,44 @@
       </c>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
